--- a/projects/alignment-opti/sample_list_alignment-opti.xlsx
+++ b/projects/alignment-opti/sample_list_alignment-opti.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t xml:space="preserve">sample_name_unique</t>
   </si>
@@ -152,15 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">l11Sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40h_NoOx_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40h_NoOx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l12Sp</t>
   </si>
 </sst>
 </file>
@@ -243,8 +234,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -276,430 +271,402 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="13.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="0" t="s">
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="0" t="s">
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="0" t="s">
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="0" t="s">
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="0" t="s">
+      <c r="I7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="0" t="s">
+      <c r="I8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="0" t="s">
+      <c r="I9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>12</v>
-      </c>
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="L10" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
